--- a/Mappings/PressureUlcer - STU3.xlsx
+++ b/Mappings/PressureUlcer - STU3.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21607"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_BB4C3643B8733075E9F176A86AEDA3331CE13372" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{FF42C12E-B133-4940-BE53-769234109D3D}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="615" windowWidth="27495" windowHeight="11955" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,7 +16,7 @@
     <sheet name="DecubitusWoundLateralityCodelis" sheetId="7" r:id="rId7"/>
     <sheet name="Terms of Use" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191028" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="145621" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="191">
   <si>
     <t>Subject</t>
   </si>
@@ -271,12 +270,6 @@
     <t>SNOMED CT: 399912005 Pressure ulcer</t>
   </si>
   <si>
-    <t>Condition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We have to discuss if the characteristics of the wound </t>
-  </si>
-  <si>
     <t>DecubitusCategory</t>
   </si>
   <si>
@@ -304,9 +297,6 @@
     <t>DecubitusCategoryCodelist</t>
   </si>
   <si>
-    <t>Condition.severity</t>
-  </si>
-  <si>
     <t>DateOfOnset</t>
   </si>
   <si>
@@ -325,9 +315,6 @@
     <t>The date on which the pressure ulcer appeared.</t>
   </si>
   <si>
-    <t>Condition.onsetDateTime</t>
-  </si>
-  <si>
     <t>AnatomicalLocation</t>
   </si>
   <si>
@@ -347,10 +334,6 @@
   </si>
   <si>
     <t>DecubitusAnatomicalLocationCodelist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Condition.bodySite_x000D_
-</t>
   </si>
   <si>
     <t>Laterality</t>
@@ -388,245 +371,267 @@
     <t>DecubitusWoundLateralityCodelist</t>
   </si>
   <si>
-    <t>Condition.bodySite.Laterality _x000D_
+    <t>DateOfLastDressingChange</t>
+  </si>
+  <si>
+    <t>NL: DatumLaatsteVerbandwissel</t>
+  </si>
+  <si>
+    <t>NL-CM:19.1.8</t>
+  </si>
+  <si>
+    <t>The date on which the dressing was last changed.</t>
+  </si>
+  <si>
+    <t>WoundLength</t>
+  </si>
+  <si>
+    <t>NL: Wondlengte</t>
+  </si>
+  <si>
+    <t>PQ</t>
+  </si>
+  <si>
+    <t>NL-CM:19.1.9</t>
+  </si>
+  <si>
+    <t>The length of the decubitus wound.</t>
+  </si>
+  <si>
+    <t>LOINC: 39126-8 Length of Wound</t>
+  </si>
+  <si>
+    <t>WoundWidth</t>
+  </si>
+  <si>
+    <t>NL: Wondbreedte</t>
+  </si>
+  <si>
+    <t>NL-CM:19.1.10</t>
+  </si>
+  <si>
+    <t>The width of the decubitus wound.</t>
+  </si>
+  <si>
+    <t>LOINC: 39125-0 Width of Wound</t>
+  </si>
+  <si>
+    <t>WoundDepth</t>
+  </si>
+  <si>
+    <t>NL: Wonddiepte</t>
+  </si>
+  <si>
+    <t>NL-CM:19.1.11</t>
+  </si>
+  <si>
+    <t>The depth of the decubitus wound.</t>
+  </si>
+  <si>
+    <t>LOINC: 39127-6 Depth of Wound</t>
+  </si>
+  <si>
+    <t>WoundImage</t>
+  </si>
+  <si>
+    <t>NL: WondFoto</t>
+  </si>
+  <si>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>0..*</t>
+  </si>
+  <si>
+    <t>NL-CM:19.1.12</t>
+  </si>
+  <si>
+    <t>A photo of the decubitus wound as visual information.</t>
+  </si>
+  <si>
+    <t>LOINC: 72170-4 Photographic image</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>NL: Toelichting</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>NL-CM:19.1.5</t>
+  </si>
+  <si>
+    <t>A comment of the decubitus wound.</t>
+  </si>
+  <si>
+    <t>LOINC: 48767-8 Annotation comment</t>
+  </si>
+  <si>
+    <t>Valueset OID: 2.16.840.1.113883.2.4.3.11.60.40.2.19.1.2</t>
+  </si>
+  <si>
+    <t>Conceptname</t>
+  </si>
+  <si>
+    <t>Codesystem name</t>
+  </si>
+  <si>
+    <t>Codesystem OID</t>
+  </si>
+  <si>
+    <t>SNOMED CT: &lt; 442083009 |Anatomical or acquired body structure|</t>
+  </si>
+  <si>
+    <t>SNOMED CT</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.6.96</t>
+  </si>
+  <si>
+    <t>Valueset OID: 2.16.840.1.113883.2.4.3.11.60.40.2.19.1.1</t>
+  </si>
+  <si>
+    <t>Conceptcode</t>
+  </si>
+  <si>
+    <t>Conceptvalue</t>
+  </si>
+  <si>
+    <t>Pressure ulcer stage 1</t>
+  </si>
+  <si>
+    <t>421076008</t>
+  </si>
+  <si>
+    <t>Decubitus categorie 1</t>
+  </si>
+  <si>
+    <t>Pressure ulcer stage 2</t>
+  </si>
+  <si>
+    <t>420324007</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Decubitus categorie 2</t>
+  </si>
+  <si>
+    <t>Pressure ulcer stage 3</t>
+  </si>
+  <si>
+    <t>421927004</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Decubitus categorie 3</t>
+  </si>
+  <si>
+    <t>Pressure ulcer stage 4</t>
+  </si>
+  <si>
+    <t>420597008</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Decubitus categorie 4</t>
+  </si>
+  <si>
+    <t>Valueset OID: 2.16.840.1.113883.2.4.3.11.60.40.2.19.1.3</t>
+  </si>
+  <si>
+    <t>Left</t>
+  </si>
+  <si>
+    <t>7771000</t>
+  </si>
+  <si>
+    <t>Links</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>24028007</t>
+  </si>
+  <si>
+    <t>Rechts</t>
+  </si>
+  <si>
+    <t>Right and left</t>
+  </si>
+  <si>
+    <t>51440002</t>
+  </si>
+  <si>
+    <t>Rechts en links</t>
+  </si>
+  <si>
+    <t>Disclaimer</t>
+  </si>
+  <si>
+    <t>This Health and Care Information Model (a.k.a Clinical Building Block) has been made in collaboration with several different parties in healthcare. These parties asked Nictiz to manage good maintenance and development of the information models. Hereafter, these parties and Nictiz are referred to as the collaborating parties. The collaborating parties paid utmost attention to the reliability and topicality of the data in these Health and Care Information Models. Omissions and inaccuracies may however occur. The collaborating parties are not liable for any damages resulting from omissions or inaccuracies in the information provided, nor are they liable for damages resulting from problems caused by or inherent to distributing information on the internet, such as malfunctions, interruptions, errors or delays in information or services provide by the parties to you or by you to the parties via a website or via e-mail, or any other digital means. The collaborating parties will also not accept liability for any damages resulting from the use of data, advice or ideas provided by or on behalf of the parties by means of this Health and Care Information Model. The parties will not accept any liability for the content of information in this Health and Care Information Model to which or from which a hyperlink is referred. In the event of contradictions in mentioned Health and Care Information Model documents and files, the most recent and highest version of the listed order in the revisions will indicate the priority of the documents in question. If information included in the digital version of this Health and Care Information Model is also distributed in writing, the written version will be leading in case of textual differences. This will apply if both have the same version number and date. A definitive version has priority over a draft version. A revised version has priority over previous versions.</t>
+  </si>
+  <si>
+    <t>Terms of Use</t>
+  </si>
+  <si>
+    <t>The user may use the information in this Health and Care Information Model without limitations. The copyright provisions in the paragraph concerned apply to copying, distributing and passing on information from this Health and Care Information Model.</t>
+  </si>
+  <si>
+    <t>Copyrights</t>
+  </si>
+  <si>
+    <t>The user may copy, distribute and pass on the information in this Health and Care Information Model under the conditions that apply for Creative Commons license Attribution-NonCommercial-ShareAlike 3.0 Netherlands (CC BY-NCSA-3.0). The content is available under Creative Commons Attribution-NonCommercial-ShareAlike 3.0 (see also http://creativecommons.org/licenses/by-nc-sa/3.0/nl/)</t>
+  </si>
+  <si>
+    <t>observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.bodySite_x000D_
+</t>
+  </si>
+  <si>
+    <t>.bodySite.Laterality _x000D_
 (extension, reference to BodySite Qualifier)</t>
   </si>
   <si>
-    <t>DateOfLastDressingChange</t>
-  </si>
-  <si>
-    <t>NL: DatumLaatsteVerbandwissel</t>
-  </si>
-  <si>
-    <t>NL-CM:19.1.8</t>
-  </si>
-  <si>
-    <t>The date on which the dressing was last changed.</t>
-  </si>
-  <si>
-    <t>Condition.dateOfLastDressingChange(extension, datetime)</t>
-  </si>
-  <si>
-    <t>extension is used also in pressureUlcer</t>
-  </si>
-  <si>
-    <t>WoundLength</t>
-  </si>
-  <si>
-    <t>NL: Wondlengte</t>
-  </si>
-  <si>
-    <t>PQ</t>
-  </si>
-  <si>
-    <t>NL-CM:19.1.9</t>
-  </si>
-  <si>
-    <t>The length of the decubitus wound.</t>
-  </si>
-  <si>
-    <t>LOINC: 39126-8 Length of Wound</t>
-  </si>
-  <si>
-    <t>To discuss</t>
-  </si>
-  <si>
-    <t>WoundWidth</t>
-  </si>
-  <si>
-    <t>NL: Wondbreedte</t>
-  </si>
-  <si>
-    <t>NL-CM:19.1.10</t>
-  </si>
-  <si>
-    <t>The width of the decubitus wound.</t>
-  </si>
-  <si>
-    <t>LOINC: 39125-0 Width of Wound</t>
-  </si>
-  <si>
-    <t>WoundDepth</t>
-  </si>
-  <si>
-    <t>NL: Wonddiepte</t>
-  </si>
-  <si>
-    <t>NL-CM:19.1.11</t>
-  </si>
-  <si>
-    <t>The depth of the decubitus wound.</t>
-  </si>
-  <si>
-    <t>LOINC: 39127-6 Depth of Wound</t>
-  </si>
-  <si>
-    <t>WoundImage</t>
-  </si>
-  <si>
-    <t>NL: WondFoto</t>
-  </si>
-  <si>
-    <t>ED</t>
-  </si>
-  <si>
-    <t>0..*</t>
-  </si>
-  <si>
-    <t>NL-CM:19.1.12</t>
-  </si>
-  <si>
-    <t>A photo of the decubitus wound as visual information.</t>
-  </si>
-  <si>
-    <t>LOINC: 72170-4 Photographic image</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>NL: Toelichting</t>
-  </si>
-  <si>
-    <t>ST</t>
-  </si>
-  <si>
-    <t>NL-CM:19.1.5</t>
-  </si>
-  <si>
-    <t>A comment of the decubitus wound.</t>
-  </si>
-  <si>
-    <t>LOINC: 48767-8 Annotation comment</t>
-  </si>
-  <si>
-    <t>Valueset OID: 2.16.840.1.113883.2.4.3.11.60.40.2.19.1.2</t>
-  </si>
-  <si>
-    <t>Conceptname</t>
-  </si>
-  <si>
-    <t>Codesystem name</t>
-  </si>
-  <si>
-    <t>Codesystem OID</t>
-  </si>
-  <si>
-    <t>SNOMED CT: &lt; 442083009 |Anatomical or acquired body structure|</t>
-  </si>
-  <si>
-    <t>SNOMED CT</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.6.96</t>
-  </si>
-  <si>
-    <t>Valueset OID: 2.16.840.1.113883.2.4.3.11.60.40.2.19.1.1</t>
-  </si>
-  <si>
-    <t>Conceptcode</t>
-  </si>
-  <si>
-    <t>Conceptvalue</t>
-  </si>
-  <si>
-    <t>Pressure ulcer stage 1</t>
-  </si>
-  <si>
-    <t>421076008</t>
-  </si>
-  <si>
-    <t>Decubitus categorie 1</t>
-  </si>
-  <si>
-    <t>Pressure ulcer stage 2</t>
-  </si>
-  <si>
-    <t>420324007</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Decubitus categorie 2</t>
-  </si>
-  <si>
-    <t>Pressure ulcer stage 3</t>
-  </si>
-  <si>
-    <t>421927004</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Decubitus categorie 3</t>
-  </si>
-  <si>
-    <t>Pressure ulcer stage 4</t>
-  </si>
-  <si>
-    <t>420597008</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Decubitus categorie 4</t>
-  </si>
-  <si>
-    <t>Valueset OID: 2.16.840.1.113883.2.4.3.11.60.40.2.19.1.3</t>
-  </si>
-  <si>
-    <t>Left</t>
-  </si>
-  <si>
-    <t>7771000</t>
-  </si>
-  <si>
-    <t>Links</t>
-  </si>
-  <si>
-    <t>Right</t>
-  </si>
-  <si>
-    <t>24028007</t>
-  </si>
-  <si>
-    <t>Rechts</t>
-  </si>
-  <si>
-    <t>Right and left</t>
-  </si>
-  <si>
-    <t>51440002</t>
-  </si>
-  <si>
-    <t>Rechts en links</t>
-  </si>
-  <si>
-    <t>Disclaimer</t>
-  </si>
-  <si>
-    <t>This Health and Care Information Model (a.k.a Clinical Building Block) has been made in collaboration with several different parties in healthcare. These parties asked Nictiz to manage good maintenance and development of the information models. Hereafter, these parties and Nictiz are referred to as the collaborating parties. The collaborating parties paid utmost attention to the reliability and topicality of the data in these Health and Care Information Models. Omissions and inaccuracies may however occur. The collaborating parties are not liable for any damages resulting from omissions or inaccuracies in the information provided, nor are they liable for damages resulting from problems caused by or inherent to distributing information on the internet, such as malfunctions, interruptions, errors or delays in information or services provide by the parties to you or by you to the parties via a website or via e-mail, or any other digital means. The collaborating parties will also not accept liability for any damages resulting from the use of data, advice or ideas provided by or on behalf of the parties by means of this Health and Care Information Model. The parties will not accept any liability for the content of information in this Health and Care Information Model to which or from which a hyperlink is referred. In the event of contradictions in mentioned Health and Care Information Model documents and files, the most recent and highest version of the listed order in the revisions will indicate the priority of the documents in question. If information included in the digital version of this Health and Care Information Model is also distributed in writing, the written version will be leading in case of textual differences. This will apply if both have the same version number and date. A definitive version has priority over a draft version. A revised version has priority over previous versions.</t>
-  </si>
-  <si>
-    <t>Terms of Use</t>
-  </si>
-  <si>
-    <t>The user may use the information in this Health and Care Information Model without limitations. The copyright provisions in the paragraph concerned apply to copying, distributing and passing on information from this Health and Care Information Model.</t>
-  </si>
-  <si>
-    <t>Copyrights</t>
-  </si>
-  <si>
-    <t>The user may copy, distribute and pass on the information in this Health and Care Information Model under the conditions that apply for Creative Commons license Attribution-NonCommercial-ShareAlike 3.0 Netherlands (CC BY-NCSA-3.0). The content is available under Creative Commons Attribution-NonCommercial-ShareAlike 3.0 (see also http://creativecommons.org/licenses/by-nc-sa/3.0/nl/)</t>
+    <t>.component.onsetDateTime</t>
+  </si>
+  <si>
+    <t>.component.decubitusCategory</t>
+  </si>
+  <si>
+    <t>.component.dateOfLastDressingChange(datetime)</t>
+  </si>
+  <si>
+    <t>component.woundLength (ucum)</t>
+  </si>
+  <si>
+    <t>component.wound (ucum)</t>
+  </si>
+  <si>
+    <t>component.woundWidth (ucum)</t>
+  </si>
+  <si>
+    <t>.woundImage (extension, binary)</t>
+  </si>
+  <si>
+    <t>.comment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="10"/>
@@ -792,15 +797,15 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -830,7 +835,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -871,7 +876,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -912,7 +917,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1232,21 +1237,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
@@ -1358,7 +1363,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <ignoredErrors>
@@ -1369,22 +1374,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}"/>
+    <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="70" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="15"/>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
@@ -1576,12 +1581,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}"/>
+    <sheetView topLeftCell="A5" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2"/>
@@ -1593,14 +1598,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0" xr3:uid="{51F8DEE0-4D01-5F28-A812-FC0BD7CAC4A5}">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="6" width="2" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -1614,7 +1619,7 @@
     <col min="18" max="18" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="12.75">
+    <row r="2" spans="2:18">
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1685,83 +1690,81 @@
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>79</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
     </row>
     <row r="4" spans="2:18" ht="25.5">
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="13"/>
       <c r="H4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="O4" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="P4" s="16" t="s">
-        <v>89</v>
+      <c r="P4" s="15" t="s">
+        <v>184</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="2"/>
     </row>
-    <row r="5" spans="2:18" ht="12.75">
+    <row r="5" spans="2:18">
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="13"/>
       <c r="H5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="16" t="s">
-        <v>96</v>
+      <c r="P5" s="15" t="s">
+        <v>183</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -1769,38 +1772,38 @@
     <row r="6" spans="2:18" ht="25.5">
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="13"/>
       <c r="H6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="O6" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>104</v>
+      <c r="P6" s="15" t="s">
+        <v>181</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="2"/>
@@ -1808,261 +1811,267 @@
     <row r="7" spans="2:18" ht="38.25">
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="13"/>
       <c r="H7" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>111</v>
+        <v>105</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="2:18" ht="38.25">
+    <row r="8" spans="2:18" ht="25.5">
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="13"/>
       <c r="H8" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="P8" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
     </row>
     <row r="9" spans="2:18" ht="25.5">
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="13"/>
       <c r="H9" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="O9" s="2"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="P9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
     </row>
     <row r="10" spans="2:18" ht="25.5">
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="13"/>
       <c r="H10" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="O10" s="2"/>
-      <c r="P10" s="16"/>
+      <c r="P10" s="15" t="s">
+        <v>188</v>
+      </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
     </row>
     <row r="11" spans="2:18" ht="25.5">
       <c r="B11" s="11"/>
       <c r="C11" s="12" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="13"/>
       <c r="H11" s="2" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="O11" s="2"/>
-      <c r="P11" s="16"/>
+      <c r="P11" s="15" t="s">
+        <v>187</v>
+      </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
     </row>
     <row r="12" spans="2:18" ht="25.5">
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="13"/>
       <c r="H12" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="O12" s="2"/>
-      <c r="P12" s="16"/>
+      <c r="P12" s="15" t="s">
+        <v>189</v>
+      </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="2:18" ht="25.5">
       <c r="B13" s="11"/>
       <c r="C13" s="12" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="13"/>
       <c r="H13" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="O13" s="2"/>
-      <c r="P13" s="16"/>
+      <c r="P13" s="15" t="s">
+        <v>190</v>
+      </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O4" location="DecubitusCategoryCodelist!A1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="O6" location="DecubitusAnatomicalLocationCode!A1" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="O7" location="DecubitusWoundLateralityCodelis!A1" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="O4" location="DecubitusCategoryCodelist!A1" display="DecubitusCategoryCodelist"/>
+    <hyperlink ref="O6" location="DecubitusAnatomicalLocationCode!A1" display="DecubitusAnatomicalLocationCodelist"/>
+    <hyperlink ref="O7" location="DecubitusWoundLateralityCodelis!A1" display="DecubitusWoundLateralityCodelist"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <ignoredErrors>
@@ -2072,12 +2081,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{F9CF3CF3-643B-5BE6-8B46-32C596A47465}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
@@ -2085,34 +2094,34 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:5">
-      <c r="C3" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>148</v>
+      <c r="C3" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="3:5">
       <c r="C4" s="14" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" ht="38.25">
       <c r="C5" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2128,12 +2137,12 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{78B4E459-6924-5F8B-B7BA-2DD04133E49E}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="5" width="15" customWidth="1"/>
@@ -2143,32 +2152,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8">
-      <c r="C3" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="C3" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="14" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>1</v>
@@ -2176,82 +2185,82 @@
     </row>
     <row r="5" spans="3:8">
       <c r="C5" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="3:8">
       <c r="C6" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="3:8">
       <c r="C7" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="3:8">
       <c r="C8" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2267,12 +2276,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{9B253EF2-77E0-53E3-AE26-4D66ECD923F3}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -2282,28 +2291,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
-      <c r="C3" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="C3" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>1</v>
@@ -2311,53 +2320,53 @@
     </row>
     <row r="5" spans="3:7">
       <c r="C5" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="3:7">
       <c r="C6" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="3:7">
       <c r="C7" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -2373,44 +2382,44 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{85D5C41F-068E-5C55-9968-509E7C2A5619}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="150" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="140.25">
       <c r="B3" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="25.5">
       <c r="B5" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="38.25">
       <c r="B7" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2419,18 +2428,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2625,13 +2634,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1334EEF1-4DFB-47DA-9620-E323C8D5F690}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43D78D48-D94B-4B76-BF66-2E1C35A17643}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43D78D48-D94B-4B76-BF66-2E1C35A17643}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1334EEF1-4DFB-47DA-9620-E323C8D5F690}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{883326BD-BF9E-494C-975F-7B35DECF4D17}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{883326BD-BF9E-494C-975F-7B35DECF4D17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
+    <ds:schemaRef ds:uri="d8b013f3-f757-4442-942f-c178d59a4411"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Mappings/PressureUlcer - STU3.xlsx
+++ b/Mappings/PressureUlcer - STU3.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="615" windowWidth="27495" windowHeight="11955" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="630" yWindow="615" windowWidth="27495" windowHeight="11955" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
     <sheet name="Information Model" sheetId="3" r:id="rId3"/>
-    <sheet name="Data" sheetId="4" r:id="rId4"/>
-    <sheet name="DecubitusAnatomicalLocationCode" sheetId="5" r:id="rId5"/>
-    <sheet name="DecubitusCategoryCodelist" sheetId="6" r:id="rId6"/>
-    <sheet name="DecubitusWoundLateralityCodelis" sheetId="7" r:id="rId7"/>
-    <sheet name="Terms of Use" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId4"/>
+    <sheet name="Data" sheetId="4" r:id="rId5"/>
+    <sheet name="DecubitusAnatomicalLocationCode" sheetId="5" r:id="rId6"/>
+    <sheet name="DecubitusCategoryCodelist" sheetId="6" r:id="rId7"/>
+    <sheet name="DecubitusWoundLateralityCodelis" sheetId="7" r:id="rId8"/>
+    <sheet name="Terms of Use" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="211">
   <si>
     <t>Subject</t>
   </si>
@@ -353,6 +354,7 @@
         <i/>
         <sz val="10"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>e.g.</t>
     </r>
@@ -360,6 +362,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> left</t>
     </r>
@@ -607,18 +610,12 @@
     <t>.component.onsetDateTime</t>
   </si>
   <si>
-    <t>.component.decubitusCategory</t>
-  </si>
-  <si>
     <t>.component.dateOfLastDressingChange(datetime)</t>
   </si>
   <si>
     <t>component.woundLength (ucum)</t>
   </si>
   <si>
-    <t>component.wound (ucum)</t>
-  </si>
-  <si>
     <t>component.woundWidth (ucum)</t>
   </si>
   <si>
@@ -626,13 +623,79 @@
   </si>
   <si>
     <t>.comment</t>
+  </si>
+  <si>
+    <t>equivalence</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>The model of this HCIM serves a purpose as a snapshot of the injury, this is why we chose Observation over Condition</t>
+  </si>
+  <si>
+    <t>component.woundDepth (ucum)</t>
+  </si>
+  <si>
+    <t>Checkbox searched for existing profiles / implementation on:</t>
+  </si>
+  <si>
+    <t>Checkbox!</t>
+  </si>
+  <si>
+    <t>Searchwords</t>
+  </si>
+  <si>
+    <t>Found results:</t>
+  </si>
+  <si>
+    <t>Relevance:</t>
+  </si>
+  <si>
+    <t>HL7 FHIR Specification</t>
+  </si>
+  <si>
+    <t>HL7 FHIR profiles</t>
+  </si>
+  <si>
+    <t>HL7 FHIR profiles - latest version latest version (build)</t>
+  </si>
+  <si>
+    <t>HL7 FHIR extension registry</t>
+  </si>
+  <si>
+    <t>HL7 FHIR extension registry - latest version (build)</t>
+  </si>
+  <si>
+    <t>HL7 FHIR implementation guides (e.g. Argonaut)</t>
+  </si>
+  <si>
+    <t>Simplifier.net</t>
+  </si>
+  <si>
+    <t>Zulip (chat.fhir.org)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google </t>
+  </si>
+  <si>
+    <t>Pressure -ulcer, - sores, decubitus</t>
+  </si>
+  <si>
+    <t>no relevant</t>
+  </si>
+  <si>
+    <t>.valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>Is required, therefore the main value for the HCIM, this is why we chose this as our observation.value[x]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -642,28 +705,44 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -753,7 +832,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -803,6 +882,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,6 +910,150 @@
 </styleSheet>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -835,7 +1069,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -876,7 +1110,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -917,7 +1151,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -945,6 +1179,1457 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9217" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9217"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9218" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9218"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9219" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9219"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9220" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9220"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9221" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9221"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9222" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9222"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9223" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9223"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9224" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9224"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9225" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9225"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9226" name="Check Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9226"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9227" name="Check Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9227"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9228" name="Check Box 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9228"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9229" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9229"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9230" name="Check Box 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9230"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9231" name="Check Box 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9231"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9232" name="Check Box 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9232"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9233" name="Check Box 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9233"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9234" name="Check Box 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9234"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9235" name="Check Box 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9235"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9236" name="Check Box 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9236"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9237" name="Check Box 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9237"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9238" name="Check Box 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9238"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9239" name="Check Box 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9239"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9240" name="Check Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9240"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9241" name="Check Box 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9241"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9242" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9242"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9243" name="Check Box 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9243"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9244" name="Check Box 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9244"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9245" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9245"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9246" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9246"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="828675" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9247" name="Check Box 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9247"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="828675" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9248" name="Check Box 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9248"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="828675" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9249" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9249"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="828675" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9250" name="Check Box 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9250"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="828675" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9251" name="Check Box 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9251"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="828675" cy="209550"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9252" name="Check Box 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9252"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -1237,7 +2922,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1386,10 +3071,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="17"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
@@ -1598,11 +3283,915 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="O1" s="18"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="19" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>207</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9217" r:id="rId3" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9218" r:id="rId4" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9219" r:id="rId5" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9220" r:id="rId6" name="Check Box 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9221" r:id="rId7" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9222" r:id="rId8" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9223" r:id="rId9" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9224" r:id="rId10" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9225" r:id="rId11" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9226" r:id="rId12" name="Check Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9227" r:id="rId13" name="Check Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9228" r:id="rId14" name="Check Box 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9229" r:id="rId15" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9230" r:id="rId16" name="Check Box 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9231" r:id="rId17" name="Check Box 15">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9232" r:id="rId18" name="Check Box 16">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9233" r:id="rId19" name="Check Box 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9234" r:id="rId20" name="Check Box 18">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9235" r:id="rId21" name="Check Box 19">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9236" r:id="rId22" name="Check Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9237" r:id="rId23" name="Check Box 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9238" r:id="rId24" name="Check Box 22">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9239" r:id="rId25" name="Check Box 23">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9240" r:id="rId26" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9241" r:id="rId27" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9242" r:id="rId28" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9243" r:id="rId29" name="Check Box 27">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9244" r:id="rId30" name="Check Box 28">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9245" r:id="rId31" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9246" r:id="rId32" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9247" r:id="rId33" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9248" r:id="rId34" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9249" r:id="rId35" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9250" r:id="rId36" name="Check Box 34">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9251" r:id="rId37" name="Check Box 35">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9252" r:id="rId38" name="Check Box 36">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R13"/>
+  <dimension ref="B2:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U16:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1615,11 +4204,11 @@
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="75" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="15" max="17" width="30" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1"/>
+    <col min="15" max="19" width="30" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:20">
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1655,14 +4244,18 @@
       <c r="P2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="R2" s="16"/>
+      <c r="S2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="38.25">
+    <row r="3" spans="2:20" ht="51">
       <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
@@ -1694,8 +4287,12 @@
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="2:18" ht="25.5">
+      <c r="S3" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="2:20" ht="51">
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
         <v>78</v>
@@ -1729,12 +4326,20 @@
         <v>86</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="2:18">
+        <v>209</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="2:20">
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
         <v>87</v>
@@ -1766,10 +4371,16 @@
       <c r="P5" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="2:18" ht="25.5">
+      <c r="Q5" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="2:20" ht="25.5">
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
         <v>93</v>
@@ -1805,10 +4416,16 @@
       <c r="P6" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="2:18" ht="38.25">
+      <c r="Q6" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="2:20" ht="38.25">
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
         <v>100</v>
@@ -1844,10 +4461,16 @@
       <c r="P7" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="2:18" ht="25.5">
+      <c r="Q7" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="2:20" ht="25.5">
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
         <v>106</v>
@@ -1877,12 +4500,16 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="2:18" ht="25.5">
+        <v>184</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="R8" s="15"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="2:20" ht="25.5">
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
         <v>110</v>
@@ -1914,12 +4541,16 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="2:18" ht="25.5">
+        <v>185</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="R9" s="15"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="2:20" ht="25.5">
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
         <v>116</v>
@@ -1951,12 +4582,16 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="2:18" ht="25.5">
+        <v>186</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="R10" s="15"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="2:20" ht="25.5">
       <c r="B11" s="11"/>
       <c r="C11" s="12" t="s">
         <v>121</v>
@@ -1988,12 +4623,16 @@
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="2:18" ht="25.5">
+        <v>192</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="R11" s="15"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="2:20" ht="25.5">
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
         <v>126</v>
@@ -2025,12 +4664,16 @@
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="2:18" ht="25.5">
+        <v>187</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="R12" s="15"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="2:20" ht="25.5">
       <c r="B13" s="11"/>
       <c r="C13" s="12" t="s">
         <v>133</v>
@@ -2062,10 +4705,14 @@
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q13" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2080,7 +4727,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E5"/>
   <sheetViews>
@@ -2094,11 +4741,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:5">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2136,7 +4783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H8"/>
   <sheetViews>
@@ -2152,16 +4799,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="14" t="s">
@@ -2275,7 +4922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G7"/>
   <sheetViews>
@@ -2291,15 +4938,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
@@ -2381,7 +5028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
@@ -2428,18 +5075,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2634,18 +5281,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43D78D48-D94B-4B76-BF66-2E1C35A17643}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1334EEF1-4DFB-47DA-9620-E323C8D5F690}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43D78D48-D94B-4B76-BF66-2E1C35A17643}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Mappings/PressureUlcer - STU3.xlsx
+++ b/Mappings/PressureUlcer - STU3.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edelman\Nictiz-STU3-Zib2017\Mappings\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CA3F4D-211A-4F54-B948-E2898DD4E9A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="615" windowWidth="27495" windowHeight="11955" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="630" yWindow="615" windowWidth="27495" windowHeight="11955" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
     <sheet name="Information Model" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId4"/>
+    <sheet name="Research" sheetId="9" r:id="rId4"/>
     <sheet name="Data" sheetId="4" r:id="rId5"/>
     <sheet name="DecubitusAnatomicalLocationCode" sheetId="5" r:id="rId6"/>
     <sheet name="DecubitusCategoryCodelist" sheetId="6" r:id="rId7"/>
@@ -18,19 +24,11 @@
     <sheet name="Terms of Use" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="212">
   <si>
     <t>Subject</t>
   </si>
@@ -613,12 +611,6 @@
     <t>.component.dateOfLastDressingChange(datetime)</t>
   </si>
   <si>
-    <t>component.woundLength (ucum)</t>
-  </si>
-  <si>
-    <t>component.woundWidth (ucum)</t>
-  </si>
-  <si>
     <t>.woundImage (extension, binary)</t>
   </si>
   <si>
@@ -634,9 +626,6 @@
     <t>The model of this HCIM serves a purpose as a snapshot of the injury, this is why we chose Observation over Condition</t>
   </si>
   <si>
-    <t>component.woundDepth (ucum)</t>
-  </si>
-  <si>
     <t>Checkbox searched for existing profiles / implementation on:</t>
   </si>
   <si>
@@ -689,13 +678,25 @@
   </si>
   <si>
     <t>Is required, therefore the main value for the HCIM, this is why we chose this as our observation.value[x]</t>
+  </si>
+  <si>
+    <t>Not .effecitve, as that refers to the dt the observation was made</t>
+  </si>
+  <si>
+    <t>component.woundLength (valueQuantity, ucum)</t>
+  </si>
+  <si>
+    <t>component.woundWidth (valueQuantity, ucum)</t>
+  </si>
+  <si>
+    <t>component.woundDepth (valueQuantity, ucum)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -882,9 +883,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -893,9 +891,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1069,7 +1070,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1110,7 +1111,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1151,7 +1152,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1206,11 +1207,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9217"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1218,6 +1222,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1247,11 +1274,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9218"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1259,6 +1289,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1288,11 +1341,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9219"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1300,6 +1356,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1329,11 +1408,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9220"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1341,6 +1423,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1370,11 +1475,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9221"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1382,6 +1490,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1411,11 +1542,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9222"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1423,6 +1557,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1452,11 +1609,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9223"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1464,6 +1624,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1493,11 +1676,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9224"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1505,6 +1691,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1534,11 +1743,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9225"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1546,6 +1758,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1575,11 +1810,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9226"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1587,6 +1825,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1616,11 +1877,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9227"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1628,6 +1892,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1657,11 +1944,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9228"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1669,6 +1959,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1698,11 +2011,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9229"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1710,6 +2026,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1739,11 +2078,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9230"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1751,6 +2093,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1780,11 +2145,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9231"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1792,6 +2160,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1821,11 +2212,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9232"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1833,6 +2227,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1862,11 +2279,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9233"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1874,6 +2294,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1903,11 +2346,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9234"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1915,6 +2361,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1944,11 +2413,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9235"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1956,6 +2428,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1985,11 +2480,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9236"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1997,6 +2495,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2026,11 +2547,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9237"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2038,6 +2562,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2067,11 +2614,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9238"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2079,6 +2629,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2108,11 +2681,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9239"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2120,6 +2696,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2149,11 +2748,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9240"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2161,6 +2763,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2190,11 +2815,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9241"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2202,6 +2830,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2231,11 +2882,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9242"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2243,6 +2897,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2272,11 +2949,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9243"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2284,6 +2964,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2313,11 +3016,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9244"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2325,6 +3031,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2354,11 +3083,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9245"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2366,6 +3098,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2395,11 +3150,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9246"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2407,6 +3165,29 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2416,14 +3197,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="828675" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9247" name="Check Box 31" hidden="1">
@@ -2431,11 +3217,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9247"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2443,23 +3232,51 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="828675" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9248" name="Check Box 32" hidden="1">
@@ -2467,11 +3284,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9248"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2479,23 +3299,51 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="828675" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9249" name="Check Box 33" hidden="1">
@@ -2503,11 +3351,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9249"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2515,23 +3366,51 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="828675" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9250" name="Check Box 34" hidden="1">
@@ -2539,11 +3418,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9250"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2551,23 +3433,51 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="828675" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9251" name="Check Box 35" hidden="1">
@@ -2575,11 +3485,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9251"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2587,23 +3500,51 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>47625</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="828675" cy="209550"/>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9252" name="Check Box 36" hidden="1">
@@ -2611,11 +3552,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9252"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024240000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2623,10 +3567,33 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2922,27 +3889,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2950,7 +3917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2958,7 +3925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2966,7 +3933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2974,7 +3941,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -2982,7 +3949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -2990,7 +3957,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -2998,7 +3965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3006,7 +3973,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -3014,7 +3981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -3022,7 +3989,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="51">
+    <row r="12" spans="2:3" ht="51" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -3030,7 +3997,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="25.5">
+    <row r="13" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -3038,7 +4005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="63.75">
+    <row r="14" spans="2:3" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
@@ -3048,7 +4015,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1"/>
+    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <ignoredErrors>
@@ -3059,24 +4026,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:C25"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
-      <c r="B2" s="17" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="2:3">
+      <c r="C2" s="21"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
@@ -3084,7 +4051,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
@@ -3092,7 +4059,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
@@ -3100,7 +4067,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
@@ -3108,7 +4075,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
@@ -3116,7 +4083,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
@@ -3124,13 +4091,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
@@ -3138,13 +4105,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>40</v>
       </c>
@@ -3152,13 +4119,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
@@ -3166,7 +4133,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>45</v>
       </c>
@@ -3174,7 +4141,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>47</v>
       </c>
@@ -3182,7 +4149,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
@@ -3190,7 +4157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>49</v>
       </c>
@@ -3198,7 +4165,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
@@ -3206,7 +4173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
@@ -3214,7 +4181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
@@ -3222,7 +4189,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>55</v>
       </c>
@@ -3230,7 +4197,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>56</v>
       </c>
@@ -3238,7 +4205,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>58</v>
       </c>
@@ -3246,7 +4213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
@@ -3266,14 +4233,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
     </row>
   </sheetData>
@@ -3283,102 +4250,102 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.5703125" customWidth="1"/>
     <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="O1" s="17"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="C2" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="O1" s="18"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="19" t="s">
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="19" t="s">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="19" t="s">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="19"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="19" t="s">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="19" t="s">
+      <c r="C8" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="19" t="s">
+      <c r="C9" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="20"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="19" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4187,14 +5154,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U16:U17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="6" width="2" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -4204,11 +5171,14 @@
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="75" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="15" max="19" width="30" customWidth="1"/>
+    <col min="15" max="16" width="30" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" customWidth="1"/>
+    <col min="19" max="19" width="30" customWidth="1"/>
     <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
@@ -4245,7 +5215,7 @@
         <v>69</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R2" s="16"/>
       <c r="S2" s="1" t="s">
@@ -4255,7 +5225,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="51">
+    <row r="3" spans="2:20" ht="51" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
@@ -4288,11 +5258,11 @@
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
       <c r="S3" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="2:20" ht="51">
+    <row r="4" spans="2:20" ht="51" x14ac:dyDescent="0.2">
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
         <v>78</v>
@@ -4326,20 +5296,20 @@
         <v>86</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S4" s="21" t="s">
-        <v>210</v>
+      <c r="S4" s="20" t="s">
+        <v>207</v>
       </c>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
         <v>87</v>
@@ -4372,15 +5342,17 @@
         <v>183</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="2"/>
+      <c r="S5" s="20" t="s">
+        <v>208</v>
+      </c>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="2:20" ht="25.5">
+    <row r="6" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
         <v>93</v>
@@ -4417,7 +5389,7 @@
         <v>181</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R6" s="15" t="s">
         <v>2</v>
@@ -4425,7 +5397,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="2:20" ht="38.25">
+    <row r="7" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
         <v>100</v>
@@ -4462,7 +5434,7 @@
         <v>182</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R7" s="15" t="s">
         <v>2</v>
@@ -4470,7 +5442,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="2:20" ht="25.5">
+    <row r="8" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
         <v>106</v>
@@ -4503,13 +5475,13 @@
         <v>184</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R8" s="15"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="2:20" ht="25.5">
+    <row r="9" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
         <v>110</v>
@@ -4541,16 +5513,16 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="15" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R9" s="15"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="2:20" ht="25.5">
+    <row r="10" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
         <v>116</v>
@@ -4582,16 +5554,16 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="15" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R10" s="15"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="2:20" ht="25.5">
+    <row r="11" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B11" s="11"/>
       <c r="C11" s="12" t="s">
         <v>121</v>
@@ -4623,16 +5595,16 @@
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="15" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R11" s="15"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="2:20" ht="25.5">
+    <row r="12" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
         <v>126</v>
@@ -4664,16 +5636,16 @@
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="15" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="R12" s="15"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="2:20" ht="25.5">
+    <row r="13" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="11"/>
       <c r="C13" s="12" t="s">
         <v>133</v>
@@ -4705,10 +5677,10 @@
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q13" s="15" t="s">
         <v>188</v>
-      </c>
-      <c r="Q13" s="15" t="s">
-        <v>190</v>
       </c>
       <c r="R13" s="15"/>
       <c r="S13" s="2"/>
@@ -4716,9 +5688,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O4" location="DecubitusCategoryCodelist!A1" display="DecubitusCategoryCodelist"/>
-    <hyperlink ref="O6" location="DecubitusAnatomicalLocationCode!A1" display="DecubitusAnatomicalLocationCodelist"/>
-    <hyperlink ref="O7" location="DecubitusWoundLateralityCodelis!A1" display="DecubitusWoundLateralityCodelist"/>
+    <hyperlink ref="O4" location="DecubitusCategoryCodelist!A1" display="DecubitusCategoryCodelist" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="O6" location="DecubitusAnatomicalLocationCode!A1" display="DecubitusAnatomicalLocationCodelist" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="O7" location="DecubitusWoundLateralityCodelis!A1" display="DecubitusWoundLateralityCodelist" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <ignoredErrors>
@@ -4728,28 +5700,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="C3:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5">
-      <c r="C3" s="17" t="s">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="3:5">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
         <v>140</v>
       </c>
@@ -4760,7 +5732,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="3:5" ht="38.25">
+    <row r="5" spans="3:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>143</v>
       </c>
@@ -4784,12 +5756,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="C3:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="5" width="15" customWidth="1"/>
@@ -4798,19 +5770,19 @@
     <col min="8" max="8" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8">
-      <c r="C3" s="17" t="s">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C3" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-    </row>
-    <row r="4" spans="3:8">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
         <v>140</v>
       </c>
@@ -4830,7 +5802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>149</v>
       </c>
@@ -4850,7 +5822,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="3:8">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>152</v>
       </c>
@@ -4870,7 +5842,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>156</v>
       </c>
@@ -4890,7 +5862,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>160</v>
       </c>
@@ -4923,12 +5895,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="C3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -4937,18 +5909,18 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7">
-      <c r="C3" s="17" t="s">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
+      <c r="C3" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="3:7">
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C4" s="14" t="s">
         <v>140</v>
       </c>
@@ -4965,7 +5937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:7">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C5" s="2" t="s">
         <v>165</v>
       </c>
@@ -4982,7 +5954,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="3:7">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C6" s="2" t="s">
         <v>168</v>
       </c>
@@ -4999,7 +5971,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="3:7">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C7" s="2" t="s">
         <v>171</v>
       </c>
@@ -5029,42 +6001,42 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="150" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="140.25">
+    <row r="3" spans="2:2" ht="140.25" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="25.5">
+    <row r="5" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="38.25">
+    <row r="7" spans="2:2" ht="38.25" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>179</v>
       </c>
@@ -5075,18 +6047,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5281,18 +6253,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1334EEF1-4DFB-47DA-9620-E323C8D5F690}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43D78D48-D94B-4B76-BF66-2E1C35A17643}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43D78D48-D94B-4B76-BF66-2E1C35A17643}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1334EEF1-4DFB-47DA-9620-E323C8D5F690}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Mappings/PressureUlcer - STU3.xlsx
+++ b/Mappings/PressureUlcer - STU3.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edelman\Nictiz-STU3-Zib2017\Mappings\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CA3F4D-211A-4F54-B948-E2898DD4E9A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="615" windowWidth="27495" windowHeight="11955" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="630" yWindow="615" windowWidth="27495" windowHeight="11955" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="210">
   <si>
     <t>Subject</t>
   </si>
@@ -594,9 +588,6 @@
     <t>The user may copy, distribute and pass on the information in this Health and Care Information Model under the conditions that apply for Creative Commons license Attribution-NonCommercial-ShareAlike 3.0 Netherlands (CC BY-NCSA-3.0). The content is available under Creative Commons Attribution-NonCommercial-ShareAlike 3.0 (see also http://creativecommons.org/licenses/by-nc-sa/3.0/nl/)</t>
   </si>
   <si>
-    <t>observation.code</t>
-  </si>
-  <si>
     <t xml:space="preserve">.bodySite_x000D_
 </t>
   </si>
@@ -605,27 +596,12 @@
 (extension, reference to BodySite Qualifier)</t>
   </si>
   <si>
-    <t>.component.onsetDateTime</t>
-  </si>
-  <si>
-    <t>.component.dateOfLastDressingChange(datetime)</t>
-  </si>
-  <si>
-    <t>.woundImage (extension, binary)</t>
-  </si>
-  <si>
-    <t>.comment</t>
-  </si>
-  <si>
     <t>equivalence</t>
   </si>
   <si>
     <t>equal</t>
   </si>
   <si>
-    <t>The model of this HCIM serves a purpose as a snapshot of the injury, this is why we chose Observation over Condition</t>
-  </si>
-  <si>
     <t>Checkbox searched for existing profiles / implementation on:</t>
   </si>
   <si>
@@ -674,29 +650,41 @@
     <t>no relevant</t>
   </si>
   <si>
-    <t>.valueCodeableConcept</t>
-  </si>
-  <si>
-    <t>Is required, therefore the main value for the HCIM, this is why we chose this as our observation.value[x]</t>
-  </si>
-  <si>
-    <t>Not .effecitve, as that refers to the dt the observation was made</t>
-  </si>
-  <si>
-    <t>component.woundLength (valueQuantity, ucum)</t>
-  </si>
-  <si>
-    <t>component.woundWidth (valueQuantity, ucum)</t>
-  </si>
-  <si>
-    <t>component.woundDepth (valueQuantity, ucum)</t>
+    <t>.stage.summary</t>
+  </si>
+  <si>
+    <t>Is required.</t>
+  </si>
+  <si>
+    <t>.onsetDateTime</t>
+  </si>
+  <si>
+    <t>.dateOfLastDressingChange(extension, datetime)</t>
+  </si>
+  <si>
+    <t>.note</t>
+  </si>
+  <si>
+    <t>Condition.code</t>
+  </si>
+  <si>
+    <t>Observation(pressureUlcurObservable).component.woundLength (valueQuantity, ucum)</t>
+  </si>
+  <si>
+    <t>Observation(pressureUlcurObservable).component.woundWidth (valueQuantity, ucum)</t>
+  </si>
+  <si>
+    <t>Observation(pressureUlcurObservable).component.woundDepth (valueQuantity, ucum)</t>
+  </si>
+  <si>
+    <t>Media (resource)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -896,7 +884,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1070,7 +1058,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1111,7 +1099,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1152,7 +1140,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1207,14 +1195,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9217"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1222,29 +1207,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1274,14 +1236,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9218"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1289,29 +1248,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1341,14 +1277,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9219"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1356,29 +1289,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1408,14 +1318,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9220"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1423,29 +1330,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1475,14 +1359,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9221"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1490,29 +1371,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1542,14 +1400,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9222"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1557,29 +1412,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1609,14 +1441,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9223"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1624,29 +1453,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1676,14 +1482,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9224"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1691,29 +1494,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1743,14 +1523,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9225"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1758,29 +1535,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1810,14 +1564,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9226"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000A240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1825,29 +1576,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1877,14 +1605,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9227"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1892,29 +1617,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1944,14 +1646,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9228"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000C240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1959,29 +1658,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2011,14 +1687,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9229"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2026,29 +1699,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2078,14 +1728,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9230"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2093,29 +1740,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2145,14 +1769,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9231"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000F240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2160,29 +1781,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2212,14 +1810,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9232"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000010240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2227,29 +1822,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2279,14 +1851,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9233"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000011240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2294,29 +1863,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2346,14 +1892,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9234"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000012240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2361,29 +1904,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2413,14 +1933,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9235"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000013240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2428,29 +1945,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2480,14 +1974,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9236"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000014240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2495,29 +1986,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2547,14 +2015,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9237"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000015240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2562,29 +2027,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2614,14 +2056,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9238"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000016240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2629,29 +2068,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2681,14 +2097,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9239"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000017240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2696,29 +2109,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2748,14 +2138,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9240"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000018240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2763,29 +2150,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2815,14 +2179,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9241"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000019240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2830,29 +2191,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2882,14 +2220,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9242"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2897,29 +2232,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2949,14 +2261,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9243"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2964,29 +2273,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3016,14 +2302,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9244"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001C240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3031,29 +2314,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3083,14 +2343,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9245"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001D240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3098,29 +2355,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3150,14 +2384,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9246"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001E240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3165,29 +2396,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3217,14 +2425,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9247"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001F240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3232,29 +2437,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3284,14 +2466,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9248"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000020240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3299,29 +2478,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3351,14 +2507,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9249"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000021240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3366,29 +2519,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3418,14 +2548,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9250"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000022240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3433,29 +2560,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3485,14 +2589,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9251"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000023240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3500,29 +2601,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3552,14 +2630,11 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s9252"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000024240000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -3567,29 +2642,6 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-                <a14:hiddenLine w="9525">
-                  <a:solidFill>
-                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-                  </a:solidFill>
-                  <a:miter lim="800000"/>
-                  <a:headEnd/>
-                  <a:tailEnd/>
-                </a14:hiddenLine>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3889,27 +2941,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3917,7 +2969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -3925,7 +2977,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -3933,7 +2985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -3941,7 +2993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3">
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
@@ -3949,7 +3001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3">
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
@@ -3957,7 +3009,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -3965,7 +3017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3973,7 +3025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
@@ -3981,7 +3033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
@@ -3989,7 +3041,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" ht="51">
       <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
@@ -3997,7 +3049,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3" ht="25.5">
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
@@ -4005,7 +3057,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" ht="63.75">
       <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
@@ -4015,7 +3067,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C11" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C11" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <ignoredErrors>
@@ -4026,24 +3078,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C25"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
     <col min="3" max="3" width="70" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:3">
       <c r="B2" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="21"/>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
@@ -4051,7 +3103,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3">
       <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
@@ -4059,7 +3111,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3">
       <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
@@ -4067,7 +3119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3">
       <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
@@ -4075,7 +3127,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3">
       <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
@@ -4083,7 +3135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3">
       <c r="B8" s="2" t="s">
         <v>34</v>
       </c>
@@ -4091,13 +3143,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:3">
       <c r="B9" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:3">
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
@@ -4105,13 +3157,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3">
       <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3">
       <c r="B12" s="2" t="s">
         <v>40</v>
       </c>
@@ -4119,13 +3171,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3">
       <c r="B13" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3">
       <c r="B14" s="2" t="s">
         <v>43</v>
       </c>
@@ -4133,7 +3185,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:3">
       <c r="B15" s="2" t="s">
         <v>45</v>
       </c>
@@ -4141,7 +3193,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:3">
       <c r="B16" s="2" t="s">
         <v>47</v>
       </c>
@@ -4149,7 +3201,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3">
       <c r="B17" s="2" t="s">
         <v>48</v>
       </c>
@@ -4157,7 +3209,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3">
       <c r="B18" s="2" t="s">
         <v>49</v>
       </c>
@@ -4165,7 +3217,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3">
       <c r="B19" s="2" t="s">
         <v>51</v>
       </c>
@@ -4173,7 +3225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3">
       <c r="B20" s="2" t="s">
         <v>52</v>
       </c>
@@ -4181,7 +3233,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3">
       <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
@@ -4189,7 +3241,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3">
       <c r="B22" s="2" t="s">
         <v>55</v>
       </c>
@@ -4197,7 +3249,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3">
       <c r="B23" s="2" t="s">
         <v>56</v>
       </c>
@@ -4205,7 +3257,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3">
       <c r="B24" s="2" t="s">
         <v>58</v>
       </c>
@@ -4213,7 +3265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3">
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
@@ -4233,14 +3285,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="2"/>
     </row>
   </sheetData>
@@ -4250,102 +3302,102 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="46.5703125" customWidth="1"/>
     <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" s="17" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
       <c r="O1" s="17"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="C8" s="18" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>204</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="18" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D9" s="19"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="18" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -5154,14 +4206,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="6" width="2" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -5171,14 +4223,15 @@
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="75" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="15" max="16" width="30" customWidth="1"/>
+    <col min="15" max="15" width="30" customWidth="1"/>
+    <col min="16" max="16" width="42.140625" customWidth="1"/>
     <col min="17" max="17" width="11.42578125" customWidth="1"/>
     <col min="18" max="18" width="10.140625" customWidth="1"/>
     <col min="19" max="19" width="30" customWidth="1"/>
     <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:20">
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
@@ -5215,7 +4268,7 @@
         <v>69</v>
       </c>
       <c r="Q2" s="16" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="R2" s="16"/>
       <c r="S2" s="1" t="s">
@@ -5225,7 +4278,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:20" ht="38.25">
       <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
@@ -5253,16 +4306,14 @@
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-      <c r="S3" s="4" t="s">
-        <v>189</v>
-      </c>
+      <c r="S3" s="4"/>
       <c r="T3" s="4"/>
     </row>
-    <row r="4" spans="2:20" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:20" ht="25.5">
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
         <v>78</v>
@@ -5296,20 +4347,20 @@
         <v>86</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="R4" s="15" t="s">
         <v>2</v>
       </c>
       <c r="S4" s="20" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="T4" s="2"/>
     </row>
-    <row r="5" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:20">
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
         <v>87</v>
@@ -5339,20 +4390,18 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q5" s="15" t="s">
         <v>183</v>
-      </c>
-      <c r="Q5" s="15" t="s">
-        <v>188</v>
       </c>
       <c r="R5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S5" s="20" t="s">
-        <v>208</v>
-      </c>
+      <c r="S5" s="20"/>
       <c r="T5" s="2"/>
     </row>
-    <row r="6" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:20" ht="25.5">
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
         <v>93</v>
@@ -5386,10 +4435,10 @@
         <v>99</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="R6" s="15" t="s">
         <v>2</v>
@@ -5397,7 +4446,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="2:20" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:20" ht="38.25">
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
         <v>100</v>
@@ -5431,10 +4480,10 @@
         <v>105</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q7" s="15" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="R7" s="15" t="s">
         <v>2</v>
@@ -5442,7 +4491,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="2"/>
     </row>
-    <row r="8" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:20" ht="25.5">
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
         <v>106</v>
@@ -5472,16 +4521,16 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="15" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="Q8" s="15" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="R8" s="15"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:20" ht="25.5">
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
         <v>110</v>
@@ -5513,16 +4562,16 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q9" s="15" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="R9" s="15"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:20" ht="25.5">
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
         <v>116</v>
@@ -5554,16 +4603,16 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="15" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="R10" s="15"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:20" ht="25.5">
       <c r="B11" s="11"/>
       <c r="C11" s="12" t="s">
         <v>121</v>
@@ -5595,16 +4644,16 @@
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q11" s="15" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="R11" s="15"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
     </row>
-    <row r="12" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:20" ht="25.5">
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
         <v>126</v>
@@ -5636,16 +4685,16 @@
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="15" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="Q12" s="15" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="R12" s="15"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
     </row>
-    <row r="13" spans="2:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:20" ht="25.5">
       <c r="B13" s="11"/>
       <c r="C13" s="12" t="s">
         <v>133</v>
@@ -5677,10 +4726,10 @@
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="15" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="15" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="R13" s="15"/>
       <c r="S13" s="2"/>
@@ -5688,9 +4737,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O4" location="DecubitusCategoryCodelist!A1" display="DecubitusCategoryCodelist" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="O6" location="DecubitusAnatomicalLocationCode!A1" display="DecubitusAnatomicalLocationCodelist" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="O7" location="DecubitusWoundLateralityCodelis!A1" display="DecubitusWoundLateralityCodelist" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="O4" location="DecubitusCategoryCodelist!A1" display="DecubitusCategoryCodelist"/>
+    <hyperlink ref="O6" location="DecubitusAnatomicalLocationCode!A1" display="DecubitusAnatomicalLocationCodelist"/>
+    <hyperlink ref="O7" location="DecubitusWoundLateralityCodelis!A1" display="DecubitusWoundLateralityCodelist"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <ignoredErrors>
@@ -5700,19 +4749,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="32" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:5">
       <c r="C3" s="21" t="s">
         <v>99</v>
       </c>
@@ -5721,7 +4770,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:5">
       <c r="C4" s="14" t="s">
         <v>140</v>
       </c>
@@ -5732,7 +4781,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="3:5" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:5" ht="38.25">
       <c r="C5" s="2" t="s">
         <v>143</v>
       </c>
@@ -5756,12 +4805,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="5" width="15" customWidth="1"/>
@@ -5770,7 +4819,7 @@
     <col min="8" max="8" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:8">
       <c r="C3" s="21" t="s">
         <v>86</v>
       </c>
@@ -5782,7 +4831,7 @@
       <c r="G3" s="21"/>
       <c r="H3" s="21"/>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:8">
       <c r="C4" s="14" t="s">
         <v>140</v>
       </c>
@@ -5802,7 +4851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:8">
       <c r="C5" s="2" t="s">
         <v>149</v>
       </c>
@@ -5822,7 +4871,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:8">
       <c r="C6" s="2" t="s">
         <v>152</v>
       </c>
@@ -5842,7 +4891,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:8">
       <c r="C7" s="2" t="s">
         <v>156</v>
       </c>
@@ -5862,7 +4911,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:8">
       <c r="C8" s="2" t="s">
         <v>160</v>
       </c>
@@ -5895,12 +4944,12 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -5909,7 +4958,7 @@
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:7">
       <c r="C3" s="21" t="s">
         <v>105</v>
       </c>
@@ -5920,7 +4969,7 @@
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
         <v>140</v>
       </c>
@@ -5937,7 +4986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:7">
       <c r="C5" s="2" t="s">
         <v>165</v>
       </c>
@@ -5954,7 +5003,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:7">
       <c r="C6" s="2" t="s">
         <v>168</v>
       </c>
@@ -5971,7 +5020,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:7">
       <c r="C7" s="2" t="s">
         <v>171</v>
       </c>
@@ -6001,42 +5050,42 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="2" max="2" width="150" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:2">
       <c r="B2" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" ht="140.25">
       <c r="B3" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" ht="25.5">
       <c r="B5" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:2" ht="38.25">
       <c r="B7" s="2" t="s">
         <v>179</v>
       </c>
@@ -6056,12 +5105,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F494F4030F39954381FEDCB9F1521453" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="27a32a75921fafc58b02df1cc725ea53">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c9309f2a-e493-41e5-bc1f-ce1ae85ad224" xmlns:ns3="d8b013f3-f757-4442-942f-c178d59a4411" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dd320713f27671350e0900a33d7d303" ns2:_="" ns3:_="">
     <xsd:import namespace="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
@@ -6252,6 +5295,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43D78D48-D94B-4B76-BF66-2E1C35A17643}">
   <ds:schemaRefs>
@@ -6261,15 +5310,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1334EEF1-4DFB-47DA-9620-E323C8D5F690}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{883326BD-BF9E-494C-975F-7B35DECF4D17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6286,4 +5326,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1334EEF1-4DFB-47DA-9620-E323C8D5F690}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Mappings/PressureUlcer - STU3.xlsx
+++ b/Mappings/PressureUlcer - STU3.xlsx
@@ -668,16 +668,19 @@
     <t>Condition.code</t>
   </si>
   <si>
-    <t>Observation(pressureUlcurObservable).component.woundLength (valueQuantity, ucum)</t>
-  </si>
-  <si>
-    <t>Observation(pressureUlcurObservable).component.woundWidth (valueQuantity, ucum)</t>
-  </si>
-  <si>
-    <t>Observation(pressureUlcurObservable).component.woundDepth (valueQuantity, ucum)</t>
-  </si>
-  <si>
     <t>Media (resource)</t>
+  </si>
+  <si>
+    <t>Observation(pressureUlcurObservable).component.woundLength (valueQuantity, ucum)
+Referred to the Condition @ .reasonReference (extension)</t>
+  </si>
+  <si>
+    <t>Observation(woundUlcurObservable).component.woundWidth (valueQuantity, ucum)
+Referred to the Condition @ .reasonReference (extension)</t>
+  </si>
+  <si>
+    <t>Observation(woundObservable).component.woundDepth (valueQuantity, ucum)
+Referred to the Condition @ .reasonReference (extension)</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1061,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1099,7 +1102,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1140,7 +1143,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001040000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2941,7 +2944,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4209,8 +4212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4446,7 +4449,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="2"/>
     </row>
-    <row r="7" spans="2:20" ht="38.25">
+    <row r="7" spans="2:20" ht="25.5">
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
         <v>100</v>
@@ -4530,7 +4533,7 @@
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
     </row>
-    <row r="9" spans="2:20" ht="25.5">
+    <row r="9" spans="2:20" ht="51">
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
         <v>110</v>
@@ -4562,7 +4565,7 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q9" s="15" t="s">
         <v>183</v>
@@ -4571,7 +4574,7 @@
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
     </row>
-    <row r="10" spans="2:20" ht="25.5">
+    <row r="10" spans="2:20" ht="51">
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
         <v>116</v>
@@ -4603,7 +4606,7 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="15" t="s">
         <v>183</v>
@@ -4612,7 +4615,7 @@
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
     </row>
-    <row r="11" spans="2:20" ht="25.5">
+    <row r="11" spans="2:20" ht="51">
       <c r="B11" s="11"/>
       <c r="C11" s="12" t="s">
         <v>121</v>
@@ -4644,7 +4647,7 @@
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q11" s="15" t="s">
         <v>183</v>
@@ -4685,7 +4688,7 @@
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q12" s="15" t="s">
         <v>183</v>
@@ -5105,6 +5108,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F494F4030F39954381FEDCB9F1521453" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="27a32a75921fafc58b02df1cc725ea53">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c9309f2a-e493-41e5-bc1f-ce1ae85ad224" xmlns:ns3="d8b013f3-f757-4442-942f-c178d59a4411" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dd320713f27671350e0900a33d7d303" ns2:_="" ns3:_="">
     <xsd:import namespace="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
@@ -5295,12 +5304,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43D78D48-D94B-4B76-BF66-2E1C35A17643}">
   <ds:schemaRefs>
@@ -5310,6 +5313,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1334EEF1-4DFB-47DA-9620-E323C8D5F690}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{883326BD-BF9E-494C-975F-7B35DECF4D17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5326,13 +5338,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1334EEF1-4DFB-47DA-9620-E323C8D5F690}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Mappings/PressureUlcer - STU3.xlsx
+++ b/Mappings/PressureUlcer - STU3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="615" windowWidth="27495" windowHeight="11955" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="630" yWindow="615" windowWidth="27495" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1061,7 +1061,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1102,7 +1102,7 @@
         <xdr:cNvPr id="1026" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1143,7 +1143,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2944,7 +2944,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2954,7 +2954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -4212,7 +4212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
@@ -5108,12 +5108,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F494F4030F39954381FEDCB9F1521453" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="27a32a75921fafc58b02df1cc725ea53">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c9309f2a-e493-41e5-bc1f-ce1ae85ad224" xmlns:ns3="d8b013f3-f757-4442-942f-c178d59a4411" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dd320713f27671350e0900a33d7d303" ns2:_="" ns3:_="">
     <xsd:import namespace="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
@@ -5304,6 +5298,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43D78D48-D94B-4B76-BF66-2E1C35A17643}">
   <ds:schemaRefs>
@@ -5313,15 +5313,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1334EEF1-4DFB-47DA-9620-E323C8D5F690}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{883326BD-BF9E-494C-975F-7B35DECF4D17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5338,4 +5329,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1334EEF1-4DFB-47DA-9620-E323C8D5F690}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Mappings/PressureUlcer - STU3.xlsx
+++ b/Mappings/PressureUlcer - STU3.xlsx
@@ -4,32 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="615" windowWidth="27495" windowHeight="11955" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="630" yWindow="615" windowWidth="27495" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Metadata" sheetId="2" r:id="rId2"/>
     <sheet name="Information Model" sheetId="3" r:id="rId3"/>
-    <sheet name="Data" sheetId="4" r:id="rId4"/>
-    <sheet name="DecubitusAnatomicalLocationCode" sheetId="5" r:id="rId5"/>
-    <sheet name="DecubitusCategoryCodelist" sheetId="6" r:id="rId6"/>
-    <sheet name="DecubitusWoundLateralityCodelis" sheetId="7" r:id="rId7"/>
-    <sheet name="Terms of Use" sheetId="8" r:id="rId8"/>
+    <sheet name="Research" sheetId="9" r:id="rId4"/>
+    <sheet name="Data" sheetId="4" r:id="rId5"/>
+    <sheet name="DecubitusAnatomicalLocationCode" sheetId="5" r:id="rId6"/>
+    <sheet name="DecubitusCategoryCodelist" sheetId="6" r:id="rId7"/>
+    <sheet name="DecubitusWoundLateralityCodelis" sheetId="7" r:id="rId8"/>
+    <sheet name="Terms of Use" sheetId="8" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="210">
   <si>
     <t>Subject</t>
   </si>
@@ -353,6 +346,7 @@
         <i/>
         <sz val="10"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>e.g.</t>
     </r>
@@ -360,6 +354,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> left</t>
     </r>
@@ -593,9 +588,6 @@
     <t>The user may copy, distribute and pass on the information in this Health and Care Information Model under the conditions that apply for Creative Commons license Attribution-NonCommercial-ShareAlike 3.0 Netherlands (CC BY-NCSA-3.0). The content is available under Creative Commons Attribution-NonCommercial-ShareAlike 3.0 (see also http://creativecommons.org/licenses/by-nc-sa/3.0/nl/)</t>
   </si>
   <si>
-    <t>observation.code</t>
-  </si>
-  <si>
     <t xml:space="preserve">.bodySite_x000D_
 </t>
   </si>
@@ -604,35 +596,98 @@
 (extension, reference to BodySite Qualifier)</t>
   </si>
   <si>
-    <t>.component.onsetDateTime</t>
-  </si>
-  <si>
-    <t>.component.decubitusCategory</t>
-  </si>
-  <si>
-    <t>.component.dateOfLastDressingChange(datetime)</t>
-  </si>
-  <si>
-    <t>component.woundLength (ucum)</t>
-  </si>
-  <si>
-    <t>component.wound (ucum)</t>
-  </si>
-  <si>
-    <t>component.woundWidth (ucum)</t>
-  </si>
-  <si>
-    <t>.woundImage (extension, binary)</t>
-  </si>
-  <si>
-    <t>.comment</t>
+    <t>equivalence</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>Checkbox searched for existing profiles / implementation on:</t>
+  </si>
+  <si>
+    <t>Checkbox!</t>
+  </si>
+  <si>
+    <t>Searchwords</t>
+  </si>
+  <si>
+    <t>Found results:</t>
+  </si>
+  <si>
+    <t>Relevance:</t>
+  </si>
+  <si>
+    <t>HL7 FHIR Specification</t>
+  </si>
+  <si>
+    <t>HL7 FHIR profiles</t>
+  </si>
+  <si>
+    <t>HL7 FHIR profiles - latest version latest version (build)</t>
+  </si>
+  <si>
+    <t>HL7 FHIR extension registry</t>
+  </si>
+  <si>
+    <t>HL7 FHIR extension registry - latest version (build)</t>
+  </si>
+  <si>
+    <t>HL7 FHIR implementation guides (e.g. Argonaut)</t>
+  </si>
+  <si>
+    <t>Simplifier.net</t>
+  </si>
+  <si>
+    <t>Zulip (chat.fhir.org)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google </t>
+  </si>
+  <si>
+    <t>Pressure -ulcer, - sores, decubitus</t>
+  </si>
+  <si>
+    <t>no relevant</t>
+  </si>
+  <si>
+    <t>.stage.summary</t>
+  </si>
+  <si>
+    <t>Is required.</t>
+  </si>
+  <si>
+    <t>.onsetDateTime</t>
+  </si>
+  <si>
+    <t>.dateOfLastDressingChange(extension, datetime)</t>
+  </si>
+  <si>
+    <t>.note</t>
+  </si>
+  <si>
+    <t>Condition.code</t>
+  </si>
+  <si>
+    <t>Media (resource)</t>
+  </si>
+  <si>
+    <t>Observation(pressureUlcurObservable).component.woundLength (valueQuantity, ucum)
+Referred to the Condition @ .reasonReference (extension)</t>
+  </si>
+  <si>
+    <t>Observation(woundUlcurObservable).component.woundWidth (valueQuantity, ucum)
+Referred to the Condition @ .reasonReference (extension)</t>
+  </si>
+  <si>
+    <t>Observation(woundObservable).component.woundDepth (valueQuantity, ucum)
+Referred to the Condition @ .reasonReference (extension)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
@@ -642,28 +697,44 @@
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -753,7 +824,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -803,6 +874,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -818,6 +900,150 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp24.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp25.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp26.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp27.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp28.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp29.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp30.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp31.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp32.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp33.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -945,6 +1171,1487 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9217" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9217"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9218" name="Check Box 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9218"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9219" name="Check Box 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9219"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9220" name="Check Box 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9220"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9221" name="Check Box 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9221"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9222" name="Check Box 6" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9222"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9223" name="Check Box 7" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9223"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9224" name="Check Box 8" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9224"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9225" name="Check Box 9" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9225"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9226" name="Check Box 10" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9226"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9227" name="Check Box 11" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9227"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9228" name="Check Box 12" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9228"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9229" name="Check Box 13" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9229"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9230" name="Check Box 14" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9230"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9231" name="Check Box 15" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9231"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9232" name="Check Box 16" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9232"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9233" name="Check Box 17" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9233"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9234" name="Check Box 18" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9234"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9235" name="Check Box 19" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9235"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9236" name="Check Box 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9236"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9237" name="Check Box 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9237"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9238" name="Check Box 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9238"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9239" name="Check Box 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9239"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9240" name="Check Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9240"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9241" name="Check Box 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9241"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9242" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9242"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9243" name="Check Box 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9243"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9244" name="Check Box 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9244"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9245" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9245"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9246" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9246"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9247" name="Check Box 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9247"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9248" name="Check Box 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9248"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9249" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9249"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9250" name="Check Box 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9250"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9251" name="Check Box 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9251"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>266700</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9252" name="Check Box 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9252"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -1247,7 +2954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1386,10 +3093,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="16"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="2" t="s">
@@ -1598,11 +3305,915 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="O1" s="17"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="E2" s="18"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9217" r:id="rId3" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9218" r:id="rId4" name="Check Box 2">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9219" r:id="rId5" name="Check Box 3">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9220" r:id="rId6" name="Check Box 4">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9221" r:id="rId7" name="Check Box 5">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9222" r:id="rId8" name="Check Box 6">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9223" r:id="rId9" name="Check Box 7">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9224" r:id="rId10" name="Check Box 8">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9225" r:id="rId11" name="Check Box 9">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9226" r:id="rId12" name="Check Box 10">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9227" r:id="rId13" name="Check Box 11">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9228" r:id="rId14" name="Check Box 12">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9229" r:id="rId15" name="Check Box 13">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9230" r:id="rId16" name="Check Box 14">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9231" r:id="rId17" name="Check Box 15">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9232" r:id="rId18" name="Check Box 16">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9233" r:id="rId19" name="Check Box 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9234" r:id="rId20" name="Check Box 18">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9235" r:id="rId21" name="Check Box 19">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9236" r:id="rId22" name="Check Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9237" r:id="rId23" name="Check Box 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9238" r:id="rId24" name="Check Box 22">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9239" r:id="rId25" name="Check Box 23">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9240" r:id="rId26" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9241" r:id="rId27" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9242" r:id="rId28" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9243" r:id="rId29" name="Check Box 27">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9244" r:id="rId30" name="Check Box 28">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9245" r:id="rId31" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9246" r:id="rId32" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9247" r:id="rId33" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9248" r:id="rId34" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9249" r:id="rId35" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9250" r:id="rId36" name="Check Box 34">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9251" r:id="rId37" name="Check Box 35">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9252" r:id="rId38" name="Check Box 36">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>47625</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>266700</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R13"/>
+  <dimension ref="B2:T13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1615,11 +4226,15 @@
     <col min="12" max="12" width="15" customWidth="1"/>
     <col min="13" max="13" width="75" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
-    <col min="15" max="17" width="30" customWidth="1"/>
-    <col min="18" max="18" width="20" customWidth="1"/>
+    <col min="15" max="15" width="30" customWidth="1"/>
+    <col min="16" max="16" width="42.140625" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" customWidth="1"/>
+    <col min="19" max="19" width="30" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:20">
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
@@ -1655,14 +4270,18 @@
       <c r="P2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="R2" s="16"/>
+      <c r="S2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="38.25">
+    <row r="3" spans="2:20" ht="38.25">
       <c r="B3" s="8" t="s">
         <v>72</v>
       </c>
@@ -1690,12 +4309,14 @@
       </c>
       <c r="O3" s="4"/>
       <c r="P3" s="4" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
-    </row>
-    <row r="4" spans="2:18" ht="25.5">
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="2:20" ht="25.5">
       <c r="B4" s="11"/>
       <c r="C4" s="12" t="s">
         <v>78</v>
@@ -1729,12 +4350,20 @@
         <v>86</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="2"/>
-    </row>
-    <row r="5" spans="2:18">
+        <v>200</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="2:20">
       <c r="B5" s="11"/>
       <c r="C5" s="12" t="s">
         <v>87</v>
@@ -1764,12 +4393,18 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q5" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-    </row>
-    <row r="6" spans="2:18" ht="25.5">
+      <c r="R5" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S5" s="20"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="2:20" ht="25.5">
       <c r="B6" s="11"/>
       <c r="C6" s="12" t="s">
         <v>93</v>
@@ -1803,12 +4438,18 @@
         <v>99</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="2"/>
-    </row>
-    <row r="7" spans="2:18" ht="38.25">
+        <v>180</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S6" s="3"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="2:20" ht="25.5">
       <c r="B7" s="11"/>
       <c r="C7" s="12" t="s">
         <v>100</v>
@@ -1842,12 +4483,18 @@
         <v>105</v>
       </c>
       <c r="P7" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="2"/>
-    </row>
-    <row r="8" spans="2:18" ht="25.5">
+        <v>181</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="S7" s="3"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="2:20" ht="25.5">
       <c r="B8" s="11"/>
       <c r="C8" s="12" t="s">
         <v>106</v>
@@ -1877,12 +4524,16 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-    </row>
-    <row r="9" spans="2:18" ht="25.5">
+        <v>203</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="R8" s="15"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="2:20" ht="51">
       <c r="B9" s="11"/>
       <c r="C9" s="12" t="s">
         <v>110</v>
@@ -1914,12 +4565,16 @@
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="15" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-    </row>
-    <row r="10" spans="2:18" ht="25.5">
+        <v>207</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="R9" s="15"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="2:20" ht="51">
       <c r="B10" s="11"/>
       <c r="C10" s="12" t="s">
         <v>116</v>
@@ -1951,12 +4606,16 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-    </row>
-    <row r="11" spans="2:18" ht="25.5">
+        <v>208</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="R10" s="15"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="2:20" ht="51">
       <c r="B11" s="11"/>
       <c r="C11" s="12" t="s">
         <v>121</v>
@@ -1988,12 +4647,16 @@
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-    </row>
-    <row r="12" spans="2:18" ht="25.5">
+        <v>209</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="R11" s="15"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="2:20" ht="25.5">
       <c r="B12" s="11"/>
       <c r="C12" s="12" t="s">
         <v>126</v>
@@ -2025,12 +4688,16 @@
       </c>
       <c r="O12" s="2"/>
       <c r="P12" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-    </row>
-    <row r="13" spans="2:18" ht="25.5">
+        <v>206</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="R12" s="15"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" spans="2:20" ht="25.5">
       <c r="B13" s="11"/>
       <c r="C13" s="12" t="s">
         <v>133</v>
@@ -2062,10 +4729,14 @@
       </c>
       <c r="O13" s="2"/>
       <c r="P13" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
+        <v>204</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="R13" s="15"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2080,7 +4751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:E5"/>
   <sheetViews>
@@ -2094,11 +4765,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:5">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>139</v>
       </c>
     </row>
@@ -2136,7 +4807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:H8"/>
   <sheetViews>
@@ -2152,16 +4823,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:8">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="14" t="s">
@@ -2275,7 +4946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G7"/>
   <sheetViews>
@@ -2291,15 +4962,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:7">
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21" t="s">
         <v>164</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="14" t="s">
@@ -2381,7 +5052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B7"/>
   <sheetViews>
@@ -2437,12 +5108,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F494F4030F39954381FEDCB9F1521453" ma:contentTypeVersion="8" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="27a32a75921fafc58b02df1cc725ea53">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c9309f2a-e493-41e5-bc1f-ce1ae85ad224" xmlns:ns3="d8b013f3-f757-4442-942f-c178d59a4411" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8dd320713f27671350e0900a33d7d303" ns2:_="" ns3:_="">
     <xsd:import namespace="c9309f2a-e493-41e5-bc1f-ce1ae85ad224"/>
@@ -2633,6 +5298,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43D78D48-D94B-4B76-BF66-2E1C35A17643}">
   <ds:schemaRefs>
@@ -2642,15 +5313,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1334EEF1-4DFB-47DA-9620-E323C8D5F690}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{883326BD-BF9E-494C-975F-7B35DECF4D17}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2667,4 +5329,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1334EEF1-4DFB-47DA-9620-E323C8D5F690}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>